--- a/biology/Botanique/Dipteridaceae/Dipteridaceae.xlsx
+++ b/biology/Botanique/Dipteridaceae/Dipteridaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Dipteridaceae sont une famille de fougères de l'ordre des Gleicheniales[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Dipteridaceae sont une famille de fougères de l'ordre des Gleicheniales.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des fougères à rhizome long et rampant, couvert de soies ou de poils articulés. Elles sont portées par un stipe muni d'un seul faisceau cribro-vasculaire. Le limbe foliaire (du moins pour les stériles) est fendu en deux parties subégales ou souvent plus ; les nervures sont fortement réticulées, avec des nervilles incluses[2].
-Les sores sont exfoliées, discrètes, compitales (à l'intersection des nervures de connexion), dispersées sur la surface. Les frondes sinon dimorphiques et fertiles sont couvertes de sporanges à maturation simultanée ou mixte, avec des pédoncules à quatre sériations ; les anneaux sont presque verticaux ou légèrement obliques ; les spores sont ellipsoïdes, ou tétraédriques et trilobées, à surface lisse ou rugueuse, environ 64 ou 128 par sporange. Les gamétophytes sont cordés-thalloïdes. La ploïdie est de x=33[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des fougères à rhizome long et rampant, couvert de soies ou de poils articulés. Elles sont portées par un stipe muni d'un seul faisceau cribro-vasculaire. Le limbe foliaire (du moins pour les stériles) est fendu en deux parties subégales ou souvent plus ; les nervures sont fortement réticulées, avec des nervilles incluses.
+Les sores sont exfoliées, discrètes, compitales (à l'intersection des nervures de connexion), dispersées sur la surface. Les frondes sinon dimorphiques et fertiles sont couvertes de sporanges à maturation simultanée ou mixte, avec des pédoncules à quatre sériations ; les anneaux sont presque verticaux ou légèrement obliques ; les spores sont ellipsoïdes, ou tétraédriques et trilobées, à surface lisse ou rugueuse, environ 64 ou 128 par sporange. Les gamétophytes sont cordés-thalloïdes. La ploïdie est de x=33.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Regroupant deux genres actuels, Cheiropleuria (en) et Dipteris (en)[3], la famille compte un total de onze espèces[2],[4] confinées à l'Asie, la Nouvelle-Guinée et le nord de l'Australie[5]. Bien que constituant actuellement une petite famille, ses représentants étaient beaucoup plus abondants au mésozoïque, les fossiles les plus anciens datant du Trias moyen, trouvés en Italie, en Australie et en Argentine. Dix genres fossiles sont connus, dont Hausmannia, Clathropteris, Dictyophyllum, Thaumatopteris, Camptopteris et Polyphacelus[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Regroupant deux genres actuels, Cheiropleuria (en) et Dipteris (en), la famille compte un total de onze espèces, confinées à l'Asie, la Nouvelle-Guinée et le nord de l'Australie. Bien que constituant actuellement une petite famille, ses représentants étaient beaucoup plus abondants au mésozoïque, les fossiles les plus anciens datant du Trias moyen, trouvés en Italie, en Australie et en Argentine. Dix genres fossiles sont connus, dont Hausmannia, Clathropteris, Dictyophyllum, Thaumatopteris, Camptopteris et Polyphacelus.
 </t>
         </is>
       </c>
@@ -574,15 +590,122 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille a été créée en 1901 pour le genre type Dipteris, par les botanistes britanniques Albert Charles Seward et Elizabeth Dale (d), dans Philosophical Transactions of the Royal Society of London, Series B, sous le nom de Dipteridinae[7].
-Étymologie
-Le nom vient du genre type Dipteris, dérivé du grec δυο / dyo, « deux », et πτέρης / pteris, « fougère », en référence aux feuilles bipartites.
-Phylogénie
-Le cladogramme suivant montre le placement des Dipteridaceae dans une relation phylogénique probable avec les deux autres familles de l'ordre des Gleicheniales[8] :
-Liste des genres
-Selon GBIF       (28 juin 2022)[9] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille a été créée en 1901 pour le genre type Dipteris, par les botanistes britanniques Albert Charles Seward et Elizabeth Dale (d), dans Philosophical Transactions of the Royal Society of London, Series B, sous le nom de Dipteridinae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dipteridaceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dipteridaceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Dipteris, dérivé du grec δυο / dyo, « deux », et πτέρης / pteris, « fougère », en référence aux feuilles bipartites.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dipteridaceae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dipteridaceae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme suivant montre le placement des Dipteridaceae dans une relation phylogénique probable avec les deux autres familles de l'ordre des Gleicheniales :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dipteridaceae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dipteridaceae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (28 juin 2022) :
 †Apachea Daugherty, 1941
 †Bongamia Nhat Mai, 1985
 †Camptopteris K.B.Presl, 1838
@@ -595,7 +718,7 @@
 †Polyphacelus X.Yao, T.N.Taylor &amp; E.L.Taylor, 1991
 †Taipingchangella X.H.Yang, 1978
 †Thaumatopteris Göppert, 1841
-La World Flora Online (WFO)       (28 juin 2022)[10] ajoute le genre Phymatodes, généralement considéré comme un synonyme de Dipteris.
+La World Flora Online (WFO)       (28 juin 2022) ajoute le genre Phymatodes, généralement considéré comme un synonyme de Dipteris.
 </t>
         </is>
       </c>
